--- a/biology/Biochimie/Nitrosylation/Nitrosylation.xlsx
+++ b/biology/Biochimie/Nitrosylation/Nitrosylation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nitrosylation est la liaison covalente de monoxyde d'azote sur une molécule, généralement organique, pour former un composé nitroso. On l'obtient in vitro par exposition à l'acide nitreux HNO2 ou à un équivalent efficace, par exemple une solution de nitrite de sodium NaNO2 et d'acide chlorhydrique HCl.
-Une classe particulière de nitrosylation, qui joue un rôle important en biologie moléculaire, implique les groupes thiol –SH pour former des S-nitrosothiols –SNO. Il s'agit de la S-nitrosylation, qui est une modification post-traductionnelle de certaines protéines sur quelques-uns de leurs résidus de cystéine. La S-nitrosylation intervient dans des processus et systèmes biochimiques fondamentaux tels que la signalisation cellulaire[1], la neurotransmission[2], le système immunitaire[3] ou encore l'apoptose[4],[5].
+Une classe particulière de nitrosylation, qui joue un rôle important en biologie moléculaire, implique les groupes thiol –SH pour former des S-nitrosothiols –SNO. Il s'agit de la S-nitrosylation, qui est une modification post-traductionnelle de certaines protéines sur quelques-uns de leurs résidus de cystéine. La S-nitrosylation intervient dans des processus et systèmes biochimiques fondamentaux tels que la signalisation cellulaire, la neurotransmission, le système immunitaire ou encore l'apoptose,.
 </t>
         </is>
       </c>
